--- a/cowin-mvcassignment.xlsx
+++ b/cowin-mvcassignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72E6FB-5438-4047-80E4-D55FD6CA8607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E010E-1DC1-417D-9605-86DCD83494B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Co-Win</t>
   </si>
@@ -127,6 +127,33 @@
   </si>
   <si>
     <t>cowin</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create 3 columns - </t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>10 digits</t>
+  </si>
+  <si>
+    <t>type=email</t>
+  </si>
+  <si>
+    <t>regular expression</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Welcome &lt;name&gt;</t>
   </si>
 </sst>
 </file>
@@ -469,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +508,7 @@
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -498,41 +525,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -546,8 +596,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -562,8 +612,14 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>17</v>
       </c>
@@ -574,7 +630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>20</v>
       </c>
@@ -582,33 +638,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>6</v>
       </c>
@@ -616,7 +681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>24</v>
       </c>
@@ -624,22 +689,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
@@ -650,24 +715,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/cowin-mvcassignment.xlsx
+++ b/cowin-mvcassignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E010E-1DC1-417D-9605-86DCD83494B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2AC73-8EEA-4C32-85D4-3BD9E2643D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Co-Win</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Welcome &lt;name&gt;</t>
+  </si>
+  <si>
+    <t>Add User Profile,Change Password and Logout Link by using memberlayout</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B15" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,6 +706,9 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">

--- a/cowin-mvcassignment.xlsx
+++ b/cowin-mvcassignment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2AC73-8EEA-4C32-85D4-3BD9E2643D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E4649-8CA6-4CD6-AA52-7E0CA2B39C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Guest Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Member" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Co-Win</t>
   </si>
@@ -123,9 +124,6 @@
     <t>If sign up is successful take them to members page</t>
   </si>
   <si>
-    <t>Members</t>
-  </si>
-  <si>
     <t>cowin</t>
   </si>
   <si>
@@ -157,6 +155,69 @@
   </si>
   <si>
     <t>Add User Profile,Change Password and Logout Link by using memberlayout</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>On click of Appointment</t>
+  </si>
+  <si>
+    <t>Aadhar Number</t>
+  </si>
+  <si>
+    <t>Hospitals</t>
+  </si>
+  <si>
+    <t>&lt;Text box&gt;</t>
+  </si>
+  <si>
+    <t>Date and Time</t>
+  </si>
+  <si>
+    <t>&lt;calendar&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Book&gt;</t>
+  </si>
+  <si>
+    <t>On click of Profile</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>First,Second,Booster</t>
+  </si>
+  <si>
+    <t>1. Display details taken during sign up  (read only)</t>
+  </si>
+  <si>
+    <t>2. Display Appointment details as a table (read only)</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Old Password</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>&lt;Submit&gt;</t>
+  </si>
+  <si>
+    <t>Clear session and take him to the guest index page</t>
   </si>
 </sst>
 </file>
@@ -501,19 +562,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -524,13 +587,11 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -551,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -562,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -576,13 +637,13 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -616,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
         <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -649,7 +710,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
@@ -660,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
@@ -673,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
@@ -707,7 +768,7 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
@@ -743,11 +804,140 @@
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACA55A6-4E65-4BD2-8DCC-428A065C5EC7}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>